--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wild/Documents/Projects/pifone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C2098-2E3B-A740-95AA-067D2C98064D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4918BA1-25B4-174D-8966-6698D2E5B42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{084475D2-BBBF-904F-B53A-14166060277D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>PiFone BoM per Phone</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Part</t>
   </si>
@@ -53,9 +50,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
     <t>https://thepihut.com/products/raspberry-pi-zero?src=raspberrypi</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Total Phone</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/32673911558.html?spm=a2g0o.productlist.0.0.487f12898Ymoe9&amp;algo_pvid=5ae1163e-a6a1-44d9-816d-c66231e9b801&amp;algo_expid=5ae1163e-a6a1-44d9-816d-c66231e9b801-1&amp;btsid=520234e0-3f85-4de2-a481-cd2084f05d03&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55</t>
   </si>
   <si>
@@ -86,7 +77,103 @@
     <t>https://www.aliexpress.com/item/32635719320.html?spm=a2g0o.productlist.0.0.7bf11fbcnvdP6g&amp;algo_pvid=69646217-db5a-4091-bdae-bc1e3aa8d8d0&amp;algo_expid=69646217-db5a-4091-bdae-bc1e3aa8d8d0-7&amp;btsid=b7db3f1c-ab74-44a0-8fe3-26295b771ab3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55</t>
   </si>
   <si>
-    <t>Phone Chassis</t>
+    <t>USB Hub</t>
+  </si>
+  <si>
+    <t>https://www.gearbest.com/cables-connectors/pp_1299434.html</t>
+  </si>
+  <si>
+    <t>USB soundcard</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/TeckNet-Aluminum-External-Adapter-Windows/dp/B000R5NJD8/ref=pd_sbs_147_5/257-8623939-5009230?_encoding=UTF8&amp;pd_rd_i=B010N8UP6C&amp;pd_rd_r=b7878bde-c4b0-4f9d-b8c6-053a534a494d&amp;pd_rd_w=DXyTF&amp;pd_rd_wg=UZof3&amp;pf_rd_p=f4a31d1d-8f61-48f5-b6f4-a22ba06df575&amp;pf_rd_r=A8GDWXWZS067NFBHQ6M4&amp;refRID=A8GDWXWZS067NFBHQ6M4&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Toshiba-TransMemory-U202-Flash-Drive/dp/B014VM3GL2/ref=sr_1_3?keywords=usb+stick+4gb&amp;qid=1576954434&amp;s=electronics&amp;sr=1-3</t>
+  </si>
+  <si>
+    <t>SD Card (16GB)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Kingston-Canvas-SDCS-16GBSP-MicroSD/dp/B079H19HLM/ref=sr_1_4?keywords=micro%2Bsd%2Bcard%2B8gb&amp;qid=1576954599&amp;s=electronics&amp;sr=1-4&amp;th=1</t>
+  </si>
+  <si>
+    <t>3.5mm Jack</t>
+  </si>
+  <si>
+    <t>https://www.bitsbox.co.uk/index.php?main_page=product_info&amp;cPath=225_226_293&amp;products_id=1542</t>
+  </si>
+  <si>
+    <t>USB Drive (10pk)</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Retro Wall Mounted phone - led underglow would be nice, could light up while recording. Brushed brass finish on the handset, but clearly plastic</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Classic 1950's style, bakelite looking (but defo no actually bakelite) phone. Push button dialpad, but will need a new redial button.</t>
+  </si>
+  <si>
+    <t>Cheeseburger</t>
+  </si>
+  <si>
+    <t>Lips!</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/4000443924301.html?spm=a2g0o.productlist.0.0.68061ccd6FR9Mx&amp;algo_pvid=650da673-9883-4ac0-8ae2-0df5365f4f59&amp;algo_expid=650da673-9883-4ac0-8ae2-0df5365f4f59-7&amp;btsid=99f42b7e-0b1d-4536-a145-799b9284a0f3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55</t>
+  </si>
+  <si>
+    <t>https://www.brideandgroomdirect.co.uk/</t>
+  </si>
+  <si>
+    <t>https://www.notonthehighstreet.com/join/signup</t>
+  </si>
+  <si>
+    <t>https://www.papier.com/contact-us</t>
+  </si>
+  <si>
+    <t>Probably the best bet!</t>
+  </si>
+  <si>
+    <t>Not their normal MO, but perhaps it's a good place to get the word out</t>
+  </si>
+  <si>
+    <t>https://www.brides.com/about-us-4777099#contact-us</t>
+  </si>
+  <si>
+    <t>Contact these people</t>
+  </si>
+  <si>
+    <t>Possibly contact these guys and see if they want to write an article?</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/uk/sell?ref=ftr</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Mouth. This one creeps me out.</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/4000323669138.html?spm=a2g0o.detail.1000014.9.57f82ea7UNlEke&amp;gps-id=pcDetailBottomMoreOtherSeller&amp;scm=1007.13338.128125.0&amp;scm_id=1007.13338.128125.0&amp;scm-url=1007.13338.128125.0&amp;pvid=006b010a-4f18-4a50-bfcd-8235c802b006</t>
+  </si>
+  <si>
+    <t>General wedding stuff seller</t>
+  </si>
+  <si>
+    <t>This I can guarantee selling on. 5% cut for Etsy</t>
+  </si>
+  <si>
+    <t>These Creations Wild</t>
   </si>
 </sst>
 </file>
@@ -96,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,8 +214,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Apple Chancery"/>
+      <family val="4"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +253,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -320,6 +444,132 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -330,12 +580,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -352,21 +598,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -683,151 +973,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF9622E-2D18-DA45-816E-7F412ADC6550}">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
-    <col min="6" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="9" max="9" width="43.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="C6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="C7" s="13">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F7" s="16">
+        <f>D7*C7</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5">
+        <f>D8*C8</f>
+        <v>2.98</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <f>D9*C9</f>
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="22">
+        <v>3.65</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10*C10</f>
+        <v>3.65</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="22">
+        <v>5.99</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5">
+        <f>D11*C11</f>
+        <v>5.99</v>
+      </c>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="22">
+        <v>26.99</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="5">
+        <f>D12*C12</f>
+        <v>2.6989999999999998</v>
+      </c>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.59</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="24">
+        <f>D13*C13</f>
+        <v>1.18</v>
+      </c>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="11">
+        <f>D14*C14</f>
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="D4" s="16">
-        <v>1</v>
-      </c>
-      <c r="E4" s="17" t="s">
+      <c r="F17" s="43">
+        <v>8.11</v>
+      </c>
+      <c r="G17" s="39">
+        <f>SUM($F$7:$F$14) + F17</f>
+        <v>31.269000000000002</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="2:11" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="18">
-        <f>D4*C4</f>
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="H4" s="25" t="s">
+      <c r="F18" s="44">
+        <v>13.05</v>
+      </c>
+      <c r="G18" s="40">
+        <f t="shared" ref="G18:G20" si="0">SUM($F$7:$F$14) + F18</f>
+        <v>36.209000000000003</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="44">
+        <v>7.49</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" si="0"/>
+        <v>30.649000000000001</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="26">
-        <v>8</v>
-      </c>
-      <c r="J4" s="27">
-        <f>SUM($F$4:$F$15) + I4</f>
-        <v>16.130000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:F6" si="0">D5*C5</f>
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="19">
-        <v>13</v>
-      </c>
-      <c r="J5" s="21">
-        <f t="shared" ref="J5:J6" si="1">SUM($F$4:$F$15) + I5</f>
-        <v>21.130000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2.98</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="F20" s="44">
+        <v>6.68</v>
+      </c>
+      <c r="G20" s="40">
         <f t="shared" si="0"/>
-        <v>2.98</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="23">
-        <v>7</v>
-      </c>
-      <c r="J6" s="24">
-        <f t="shared" si="1"/>
-        <v>15.13</v>
-      </c>
+        <v>29.839000000000002</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="45">
+        <v>5.88</v>
+      </c>
+      <c r="G21" s="41">
+        <f>SUM($F$7:$F$14) + F21</f>
+        <v>29.039000000000001</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H14">
+    <sortCondition ref="G7:G14"/>
+  </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B2:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{062248E1-8540-1846-8AA4-A45A566CE89D}"/>
-    <hyperlink ref="H4" r:id="rId2" display="https://www.aliexpress.com/item/32897276508.html?spm=a2g0o.productlist.0.0.30aca15enJKycr&amp;algo_pvid=355ea04a-dc70-4b46-b04e-6ec93d3414f2&amp;algo_expid=355ea04a-dc70-4b46-b04e-6ec93d3414f2-2&amp;btsid=7901246e-f13e-495e-94e5-165e4d74f2a7&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{147B2F1B-B24D-C54F-914E-4B64652BD485}"/>
-    <hyperlink ref="H5" r:id="rId3" display="https://www.aliexpress.com/item/33059903858.html?spm=a2g0o.productlist.0.0.30aca15enJKycr&amp;algo_pvid=355ea04a-dc70-4b46-b04e-6ec93d3414f2&amp;algo_expid=355ea04a-dc70-4b46-b04e-6ec93d3414f2-0&amp;btsid=7901246e-f13e-495e-94e5-165e4d74f2a7&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{F9BDEB06-D10C-F04B-812C-3899811D29CA}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{B9746B67-8085-1E48-A0F7-E35A3C8B06A6}"/>
-    <hyperlink ref="E5" r:id="rId5" display="https://www.aliexpress.com/item/32673911558.html?spm=a2g0o.productlist.0.0.487f12898Ymoe9&amp;algo_pvid=5ae1163e-a6a1-44d9-816d-c66231e9b801&amp;algo_expid=5ae1163e-a6a1-44d9-816d-c66231e9b801-1&amp;btsid=520234e0-3f85-4de2-a481-cd2084f05d03&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{FCC8354D-0EBD-6742-AA76-676A5E4549B4}"/>
-    <hyperlink ref="E6" r:id="rId6" display="https://www.aliexpress.com/item/32635719320.html?spm=a2g0o.productlist.0.0.7bf11fbcnvdP6g&amp;algo_pvid=69646217-db5a-4091-bdae-bc1e3aa8d8d0&amp;algo_expid=69646217-db5a-4091-bdae-bc1e3aa8d8d0-7&amp;btsid=b7db3f1c-ab74-44a0-8fe3-26295b771ab3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{31DAFCEF-BCCB-B248-9A9B-6D6E69F5CDC7}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{062248E1-8540-1846-8AA4-A45A566CE89D}"/>
+    <hyperlink ref="E17" r:id="rId2" display="https://www.aliexpress.com/item/32897276508.html?spm=a2g0o.productlist.0.0.30aca15enJKycr&amp;algo_pvid=355ea04a-dc70-4b46-b04e-6ec93d3414f2&amp;algo_expid=355ea04a-dc70-4b46-b04e-6ec93d3414f2-2&amp;btsid=7901246e-f13e-495e-94e5-165e4d74f2a7&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{147B2F1B-B24D-C54F-914E-4B64652BD485}"/>
+    <hyperlink ref="E18" r:id="rId3" display="https://www.aliexpress.com/item/33059903858.html?spm=a2g0o.productlist.0.0.30aca15enJKycr&amp;algo_pvid=355ea04a-dc70-4b46-b04e-6ec93d3414f2&amp;algo_expid=355ea04a-dc70-4b46-b04e-6ec93d3414f2-0&amp;btsid=7901246e-f13e-495e-94e5-165e4d74f2a7&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{F9BDEB06-D10C-F04B-812C-3899811D29CA}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{B9746B67-8085-1E48-A0F7-E35A3C8B06A6}"/>
+    <hyperlink ref="E9" r:id="rId5" display="https://www.aliexpress.com/item/32673911558.html?spm=a2g0o.productlist.0.0.487f12898Ymoe9&amp;algo_pvid=5ae1163e-a6a1-44d9-816d-c66231e9b801&amp;algo_expid=5ae1163e-a6a1-44d9-816d-c66231e9b801-1&amp;btsid=520234e0-3f85-4de2-a481-cd2084f05d03&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{FCC8354D-0EBD-6742-AA76-676A5E4549B4}"/>
+    <hyperlink ref="E8" r:id="rId6" display="https://www.aliexpress.com/item/32635719320.html?spm=a2g0o.productlist.0.0.7bf11fbcnvdP6g&amp;algo_pvid=69646217-db5a-4091-bdae-bc1e3aa8d8d0&amp;algo_expid=69646217-db5a-4091-bdae-bc1e3aa8d8d0-7&amp;btsid=b7db3f1c-ab74-44a0-8fe3-26295b771ab3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{31DAFCEF-BCCB-B248-9A9B-6D6E69F5CDC7}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{C9E65DD5-D3EB-1C45-A0D2-744921CCE33F}"/>
+    <hyperlink ref="E11" r:id="rId8" display="https://www.amazon.co.uk/TeckNet-Aluminum-External-Adapter-Windows/dp/B000R5NJD8/ref=pd_sbs_147_5/257-8623939-5009230?_encoding=UTF8&amp;pd_rd_i=B010N8UP6C&amp;pd_rd_r=b7878bde-c4b0-4f9d-b8c6-053a534a494d&amp;pd_rd_w=DXyTF&amp;pd_rd_wg=UZof3&amp;pf_rd_p=f4a31d1d-8f61-48f5-b6f4-a22ba06df575&amp;pf_rd_r=A8GDWXWZS067NFBHQ6M4&amp;refRID=A8GDWXWZS067NFBHQ6M4&amp;th=1" xr:uid="{856189ED-8707-4D4A-AE5C-51A81B3FFED9}"/>
+    <hyperlink ref="E12" r:id="rId9" xr:uid="{3E2A7D64-CF22-4D4C-B9A4-169D79BFB993}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{5D537035-3DA7-A541-899D-0E5A003BFFC0}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{38AE1551-BDD8-7F41-B52E-8B8D8BC320E0}"/>
+    <hyperlink ref="E21" r:id="rId12" display="https://www.aliexpress.com/item/4000443924301.html?spm=a2g0o.productlist.0.0.68061ccd6FR9Mx&amp;algo_pvid=650da673-9883-4ac0-8ae2-0df5365f4f59&amp;algo_expid=650da673-9883-4ac0-8ae2-0df5365f4f59-7&amp;btsid=99f42b7e-0b1d-4536-a145-799b9284a0f3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{1C1C937A-3D34-044F-990E-8B2A5A7F1053}"/>
+    <hyperlink ref="I6" r:id="rId13" xr:uid="{AE8FAD3E-C5DD-6D43-B0AE-512D8E8DF902}"/>
+    <hyperlink ref="I7" r:id="rId14" xr:uid="{2170733D-576F-BB43-BC62-788AA488E6FB}"/>
+    <hyperlink ref="I8" r:id="rId15" xr:uid="{BFBDE08D-130A-3141-89A3-08BE58F1548C}"/>
+    <hyperlink ref="I9" r:id="rId16" location="contact-us" display="https://www.brides.com/about-us-4777099 - contact-us" xr:uid="{D4D2B638-7A8D-C74F-8D32-E008A9A583BE}"/>
+    <hyperlink ref="I10" r:id="rId17" xr:uid="{AB54493A-86F8-3A48-99F4-E66051DE6125}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{83D38802-124E-2048-A92E-E72E15CEF0A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wild/Documents/Projects/pifone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4918BA1-25B4-174D-8966-6698D2E5B42A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD79255-69CE-7D46-B371-31497391EB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{084475D2-BBBF-904F-B53A-14166060277D}"/>
   </bookViews>
@@ -173,7 +173,7 @@
     <t>This I can guarantee selling on. 5% cut for Etsy</t>
   </si>
   <si>
-    <t>These Creations Wild</t>
+    <t>These Creations Wild - Pifone</t>
   </si>
 </sst>
 </file>
@@ -610,33 +610,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -648,6 +621,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -656,6 +641,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -976,7 +976,7 @@
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,34 +993,43 @@
     <col min="10" max="10" width="60.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+    </row>
+    <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+    </row>
+    <row r="4" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="48" t="s">
+      <c r="J5" s="39" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1061,10 +1070,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="16">
-        <f>D7*C7</f>
+        <f t="shared" ref="F7:F14" si="0">D7*C7</f>
         <v>4.6500000000000004</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="I7" s="37" t="s">
         <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1085,7 +1094,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="5">
-        <f>D8*C8</f>
+        <f t="shared" si="0"/>
         <v>2.98</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1109,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="5">
-        <f>D9*C9</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -1133,7 +1142,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="5">
-        <f>D10*C10</f>
+        <f t="shared" si="0"/>
         <v>3.65</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1157,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="5">
-        <f>D11*C11</f>
+        <f t="shared" si="0"/>
         <v>5.99</v>
       </c>
       <c r="I11" s="28"/>
@@ -1176,7 +1185,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="5">
-        <f>D12*C12</f>
+        <f t="shared" si="0"/>
         <v>2.6989999999999998</v>
       </c>
       <c r="I12" s="28"/>
@@ -1195,7 +1204,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="24">
-        <f>D13*C13</f>
+        <f t="shared" si="0"/>
         <v>1.18</v>
       </c>
       <c r="I13" s="28"/>
@@ -1214,24 +1223,24 @@
         <v>15</v>
       </c>
       <c r="F14" s="11">
-        <f>D14*C14</f>
+        <f t="shared" si="0"/>
         <v>1.51</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="29" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="1"/>
@@ -1239,18 +1248,18 @@
       <c r="K16" s="27"/>
     </row>
     <row r="17" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="34">
         <v>8.11</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="30">
         <f>SUM($F$7:$F$14) + F17</f>
         <v>31.269000000000002</v>
       </c>
@@ -1259,19 +1268,19 @@
       <c r="K17" s="27"/>
     </row>
     <row r="18" spans="2:11" ht="65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="35">
         <v>13.05</v>
       </c>
-      <c r="G18" s="40">
-        <f t="shared" ref="G18:G20" si="0">SUM($F$7:$F$14) + F18</f>
+      <c r="G18" s="31">
+        <f t="shared" ref="G18:G20" si="1">SUM($F$7:$F$14) + F18</f>
         <v>36.209000000000003</v>
       </c>
       <c r="H18" s="1"/>
@@ -1279,19 +1288,19 @@
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="35">
         <v>7.49</v>
       </c>
-      <c r="G19" s="40">
-        <f t="shared" si="0"/>
+      <c r="G19" s="31">
+        <f t="shared" si="1"/>
         <v>30.649000000000001</v>
       </c>
       <c r="H19" s="1"/>
@@ -1299,19 +1308,19 @@
       <c r="K19" s="27"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="35">
         <v>6.68</v>
       </c>
-      <c r="G20" s="40">
-        <f t="shared" si="0"/>
+      <c r="G20" s="31">
+        <f t="shared" si="1"/>
         <v>29.839000000000002</v>
       </c>
       <c r="H20" s="1"/>
@@ -1319,18 +1328,18 @@
       <c r="K20" s="27"/>
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="36">
         <v>5.88</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="32">
         <f>SUM($F$7:$F$14) + F21</f>
         <v>29.039000000000001</v>
       </c>
@@ -1342,13 +1351,13 @@
     <sortCondition ref="G7:G14"/>
   </sortState>
   <mergeCells count="7">
+    <mergeCell ref="B2:I4"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B2:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{062248E1-8540-1846-8AA4-A45A566CE89D}"/>

--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wild/Documents/Projects/pifone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD79255-69CE-7D46-B371-31497391EB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40C77FC-4444-4C46-A64C-AEE6FD2425AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{084475D2-BBBF-904F-B53A-14166060277D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Part</t>
   </si>
@@ -80,18 +80,12 @@
     <t>USB Hub</t>
   </si>
   <si>
-    <t>https://www.gearbest.com/cables-connectors/pp_1299434.html</t>
-  </si>
-  <si>
     <t>USB soundcard</t>
   </si>
   <si>
     <t>https://www.amazon.co.uk/TeckNet-Aluminum-External-Adapter-Windows/dp/B000R5NJD8/ref=pd_sbs_147_5/257-8623939-5009230?_encoding=UTF8&amp;pd_rd_i=B010N8UP6C&amp;pd_rd_r=b7878bde-c4b0-4f9d-b8c6-053a534a494d&amp;pd_rd_w=DXyTF&amp;pd_rd_wg=UZof3&amp;pf_rd_p=f4a31d1d-8f61-48f5-b6f4-a22ba06df575&amp;pf_rd_r=A8GDWXWZS067NFBHQ6M4&amp;refRID=A8GDWXWZS067NFBHQ6M4&amp;th=1</t>
   </si>
   <si>
-    <t>https://www.amazon.co.uk/Toshiba-TransMemory-U202-Flash-Drive/dp/B014VM3GL2/ref=sr_1_3?keywords=usb+stick+4gb&amp;qid=1576954434&amp;s=electronics&amp;sr=1-3</t>
-  </si>
-  <si>
     <t>SD Card (16GB)</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>https://www.bitsbox.co.uk/index.php?main_page=product_info&amp;cPath=225_226_293&amp;products_id=1542</t>
   </si>
   <si>
-    <t>USB Drive (10pk)</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -174,6 +165,27 @@
   </si>
   <si>
     <t>These Creations Wild - Pifone</t>
+  </si>
+  <si>
+    <t>USB Drive</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32861242337.html?spm=a2g0o.productlist.0.0.39d85d03pZECR7&amp;algo_pvid=c9870819-eada-40a5-9395-c73b9fa229b0&amp;algo_expid=c9870819-eada-40a5-9395-c73b9fa229b0-0&amp;btsid=c2af3573-12a6-4257-8be3-02fbc935ad88&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32947680488.html?spm=a2g0o.productlist.0.0.276310c4vqGtty&amp;algo_pvid=aa2c9d9a-b18b-42d7-9cc0-6de719c96c89&amp;algo_expid=aa2c9d9a-b18b-42d7-9cc0-6de719c96c89-0&amp;btsid=013fedc3-28eb-42cc-a7b9-1e0ab059d256&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55</t>
+  </si>
+  <si>
+    <t>Bought</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Email: those.creations.wild@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -266,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -570,6 +582,54 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -580,7 +640,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -657,6 +717,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -976,7 +1040,7 @@
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I4"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,7 +1059,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -1027,10 +1091,10 @@
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="39" t="s">
         <v>38</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1047,13 +1111,16 @@
         <v>4</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>47</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -1073,11 +1140,14 @@
         <f t="shared" ref="F7:F14" si="0">D7*C7</f>
         <v>4.6500000000000004</v>
       </c>
+      <c r="G7" s="53" t="s">
+        <v>48</v>
+      </c>
       <c r="I7" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1097,11 +1167,14 @@
         <f t="shared" si="0"/>
         <v>2.98</v>
       </c>
+      <c r="G8" s="53" t="s">
+        <v>48</v>
+      </c>
       <c r="I8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -1121,16 +1194,19 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="G9" s="53" t="s">
+        <v>48</v>
+      </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="22">
         <v>3.65</v>
@@ -1138,23 +1214,26 @@
       <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>20</v>
+      <c r="E10" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>3.65</v>
       </c>
+      <c r="G10" s="53" t="s">
+        <v>48</v>
+      </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="22">
         <v>5.99</v>
@@ -1163,36 +1242,42 @@
         <v>1</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>5.99</v>
       </c>
+      <c r="G11" s="53" t="s">
+        <v>48</v>
+      </c>
       <c r="I11" s="28"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22">
-        <v>26.99</v>
+        <v>2.14</v>
       </c>
       <c r="D12" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>2.6989999999999998</v>
+        <v>2.14</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>48</v>
       </c>
       <c r="I12" s="28"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="22">
         <v>0.59</v>
@@ -1201,12 +1286,15 @@
         <v>2</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>1.18</v>
       </c>
+      <c r="G13" s="53" t="s">
+        <v>49</v>
+      </c>
       <c r="I13" s="28"/>
     </row>
     <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1214,23 +1302,29 @@
         <v>14</v>
       </c>
       <c r="C14" s="8">
-        <v>1.51</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>15</v>
+      <c r="E14" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
-        <v>1.51</v>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -1241,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16"/>
@@ -1249,7 +1343,7 @@
     </row>
     <row r="17" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
@@ -1261,7 +1355,7 @@
       </c>
       <c r="G17" s="30">
         <f>SUM($F$7:$F$14) + F17</f>
-        <v>31.269000000000002</v>
+        <v>30.360000000000003</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17"/>
@@ -1269,7 +1363,7 @@
     </row>
     <row r="18" spans="2:11" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="50"/>
@@ -1281,7 +1375,7 @@
       </c>
       <c r="G18" s="31">
         <f t="shared" ref="G18:G20" si="1">SUM($F$7:$F$14) + F18</f>
-        <v>36.209000000000003</v>
+        <v>35.300000000000004</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18"/>
@@ -1289,19 +1383,19 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="45"/>
       <c r="D19" s="46"/>
       <c r="E19" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="35">
         <v>7.49</v>
       </c>
       <c r="G19" s="31">
         <f t="shared" si="1"/>
-        <v>30.649000000000001</v>
+        <v>29.740000000000002</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19"/>
@@ -1309,7 +1403,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
@@ -1321,7 +1415,7 @@
       </c>
       <c r="G20" s="31">
         <f t="shared" si="1"/>
-        <v>29.839000000000002</v>
+        <v>28.930000000000003</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20"/>
@@ -1329,19 +1423,19 @@
     </row>
     <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F21" s="36">
         <v>5.88</v>
       </c>
       <c r="G21" s="32">
         <f>SUM($F$7:$F$14) + F21</f>
-        <v>29.039000000000001</v>
+        <v>28.130000000000003</v>
       </c>
       <c r="I21"/>
       <c r="J21" s="27"/>
@@ -1366,18 +1460,18 @@
     <hyperlink ref="E20" r:id="rId4" xr:uid="{B9746B67-8085-1E48-A0F7-E35A3C8B06A6}"/>
     <hyperlink ref="E9" r:id="rId5" display="https://www.aliexpress.com/item/32673911558.html?spm=a2g0o.productlist.0.0.487f12898Ymoe9&amp;algo_pvid=5ae1163e-a6a1-44d9-816d-c66231e9b801&amp;algo_expid=5ae1163e-a6a1-44d9-816d-c66231e9b801-1&amp;btsid=520234e0-3f85-4de2-a481-cd2084f05d03&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{FCC8354D-0EBD-6742-AA76-676A5E4549B4}"/>
     <hyperlink ref="E8" r:id="rId6" display="https://www.aliexpress.com/item/32635719320.html?spm=a2g0o.productlist.0.0.7bf11fbcnvdP6g&amp;algo_pvid=69646217-db5a-4091-bdae-bc1e3aa8d8d0&amp;algo_expid=69646217-db5a-4091-bdae-bc1e3aa8d8d0-7&amp;btsid=b7db3f1c-ab74-44a0-8fe3-26295b771ab3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{31DAFCEF-BCCB-B248-9A9B-6D6E69F5CDC7}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{C9E65DD5-D3EB-1C45-A0D2-744921CCE33F}"/>
-    <hyperlink ref="E11" r:id="rId8" display="https://www.amazon.co.uk/TeckNet-Aluminum-External-Adapter-Windows/dp/B000R5NJD8/ref=pd_sbs_147_5/257-8623939-5009230?_encoding=UTF8&amp;pd_rd_i=B010N8UP6C&amp;pd_rd_r=b7878bde-c4b0-4f9d-b8c6-053a534a494d&amp;pd_rd_w=DXyTF&amp;pd_rd_wg=UZof3&amp;pf_rd_p=f4a31d1d-8f61-48f5-b6f4-a22ba06df575&amp;pf_rd_r=A8GDWXWZS067NFBHQ6M4&amp;refRID=A8GDWXWZS067NFBHQ6M4&amp;th=1" xr:uid="{856189ED-8707-4D4A-AE5C-51A81B3FFED9}"/>
-    <hyperlink ref="E12" r:id="rId9" xr:uid="{3E2A7D64-CF22-4D4C-B9A4-169D79BFB993}"/>
-    <hyperlink ref="E10" r:id="rId10" xr:uid="{5D537035-3DA7-A541-899D-0E5A003BFFC0}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{38AE1551-BDD8-7F41-B52E-8B8D8BC320E0}"/>
-    <hyperlink ref="E21" r:id="rId12" display="https://www.aliexpress.com/item/4000443924301.html?spm=a2g0o.productlist.0.0.68061ccd6FR9Mx&amp;algo_pvid=650da673-9883-4ac0-8ae2-0df5365f4f59&amp;algo_expid=650da673-9883-4ac0-8ae2-0df5365f4f59-7&amp;btsid=99f42b7e-0b1d-4536-a145-799b9284a0f3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{1C1C937A-3D34-044F-990E-8B2A5A7F1053}"/>
-    <hyperlink ref="I6" r:id="rId13" xr:uid="{AE8FAD3E-C5DD-6D43-B0AE-512D8E8DF902}"/>
-    <hyperlink ref="I7" r:id="rId14" xr:uid="{2170733D-576F-BB43-BC62-788AA488E6FB}"/>
-    <hyperlink ref="I8" r:id="rId15" xr:uid="{BFBDE08D-130A-3141-89A3-08BE58F1548C}"/>
-    <hyperlink ref="I9" r:id="rId16" location="contact-us" display="https://www.brides.com/about-us-4777099 - contact-us" xr:uid="{D4D2B638-7A8D-C74F-8D32-E008A9A583BE}"/>
-    <hyperlink ref="I10" r:id="rId17" xr:uid="{AB54493A-86F8-3A48-99F4-E66051DE6125}"/>
-    <hyperlink ref="E19" r:id="rId18" xr:uid="{83D38802-124E-2048-A92E-E72E15CEF0A6}"/>
+    <hyperlink ref="E11" r:id="rId7" display="https://www.amazon.co.uk/TeckNet-Aluminum-External-Adapter-Windows/dp/B000R5NJD8/ref=pd_sbs_147_5/257-8623939-5009230?_encoding=UTF8&amp;pd_rd_i=B010N8UP6C&amp;pd_rd_r=b7878bde-c4b0-4f9d-b8c6-053a534a494d&amp;pd_rd_w=DXyTF&amp;pd_rd_wg=UZof3&amp;pf_rd_p=f4a31d1d-8f61-48f5-b6f4-a22ba06df575&amp;pf_rd_r=A8GDWXWZS067NFBHQ6M4&amp;refRID=A8GDWXWZS067NFBHQ6M4&amp;th=1" xr:uid="{856189ED-8707-4D4A-AE5C-51A81B3FFED9}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{5D537035-3DA7-A541-899D-0E5A003BFFC0}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{38AE1551-BDD8-7F41-B52E-8B8D8BC320E0}"/>
+    <hyperlink ref="E21" r:id="rId10" display="https://www.aliexpress.com/item/4000443924301.html?spm=a2g0o.productlist.0.0.68061ccd6FR9Mx&amp;algo_pvid=650da673-9883-4ac0-8ae2-0df5365f4f59&amp;algo_expid=650da673-9883-4ac0-8ae2-0df5365f4f59-7&amp;btsid=99f42b7e-0b1d-4536-a145-799b9284a0f3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{1C1C937A-3D34-044F-990E-8B2A5A7F1053}"/>
+    <hyperlink ref="I6" r:id="rId11" xr:uid="{AE8FAD3E-C5DD-6D43-B0AE-512D8E8DF902}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{2170733D-576F-BB43-BC62-788AA488E6FB}"/>
+    <hyperlink ref="I8" r:id="rId13" xr:uid="{BFBDE08D-130A-3141-89A3-08BE58F1548C}"/>
+    <hyperlink ref="I9" r:id="rId14" location="contact-us" display="https://www.brides.com/about-us-4777099 - contact-us" xr:uid="{D4D2B638-7A8D-C74F-8D32-E008A9A583BE}"/>
+    <hyperlink ref="I10" r:id="rId15" xr:uid="{AB54493A-86F8-3A48-99F4-E66051DE6125}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{83D38802-124E-2048-A92E-E72E15CEF0A6}"/>
+    <hyperlink ref="E12" r:id="rId17" display="https://www.aliexpress.com/item/32861242337.html?spm=a2g0o.productlist.0.0.39d85d03pZECR7&amp;algo_pvid=c9870819-eada-40a5-9395-c73b9fa229b0&amp;algo_expid=c9870819-eada-40a5-9395-c73b9fa229b0-0&amp;btsid=c2af3573-12a6-4257-8be3-02fbc935ad88&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{7C654ED2-C92D-B744-AD86-1F2A237D5064}"/>
+    <hyperlink ref="E14" r:id="rId18" display="https://www.aliexpress.com/item/32947680488.html?spm=a2g0o.productlist.0.0.276310c4vqGtty&amp;algo_pvid=aa2c9d9a-b18b-42d7-9cc0-6de719c96c89&amp;algo_expid=aa2c9d9a-b18b-42d7-9cc0-6de719c96c89-0&amp;btsid=013fedc3-28eb-42cc-a7b9-1e0ab059d256&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{A99EF000-EC26-0147-85E2-E098677ED58C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wild/Documents/Projects/pifone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40C77FC-4444-4C46-A64C-AEE6FD2425AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A139C1-B24F-C141-8A26-5C05D8D2F32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{084475D2-BBBF-904F-B53A-14166060277D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Part</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Total cost</t>
   </si>
   <si>
-    <t>Classic 1950's style, bakelite looking (but defo no actually bakelite) phone. Push button dialpad, but will need a new redial button.</t>
-  </si>
-  <si>
     <t>Cheeseburger</t>
   </si>
   <si>
@@ -186,6 +183,24 @@
   </si>
   <si>
     <t>Email: those.creations.wild@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.argos.co.uk/product/8896759</t>
+  </si>
+  <si>
+    <t>This is a decent-looking rotary dial replica of the GPO 746. Easy to hook into, looks okay quality, but expensive</t>
+  </si>
+  <si>
+    <t>Classic 1950's style, bakelite looking (but defo no actually bakelite) phone. Push button dialpad, but will need a new redial button. Redial button is part of the button silicone, and the overall feel is incredibly cheap.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/GPO-746-1970s-style-Telephone-Authentic-Black/dp/B00YAE5K48?th=1</t>
+  </si>
+  <si>
+    <t>Sell Price:</t>
+  </si>
+  <si>
+    <t>These come direct from the actual GPO company, so will be the best quality I assume. Rotary dial, many colours available. Has a * and # on the dialler. Higher quality is worth it</t>
   </si>
 </sst>
 </file>
@@ -681,6 +696,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,13 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1037,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF9622E-2D18-DA45-816E-7F412ADC6550}">
-  <dimension ref="B2:K21"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1065,7 @@
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="27.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="9" max="9" width="43.1640625" style="27" bestFit="1" customWidth="1"/>
@@ -1058,43 +1073,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="B2" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I5" s="38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1113,14 +1128,14 @@
       <c r="F6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="52" t="s">
-        <v>47</v>
+      <c r="G6" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -1140,14 +1155,14 @@
         <f t="shared" ref="F7:F14" si="0">D7*C7</f>
         <v>4.6500000000000004</v>
       </c>
-      <c r="G7" s="53" t="s">
-        <v>48</v>
+      <c r="G7" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1167,14 +1182,14 @@
         <f t="shared" si="0"/>
         <v>2.98</v>
       </c>
-      <c r="G8" s="53" t="s">
-        <v>48</v>
+      <c r="G8" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -1194,14 +1209,14 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G9" s="53" t="s">
-        <v>48</v>
+      <c r="G9" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -1221,14 +1236,14 @@
         <f t="shared" si="0"/>
         <v>3.65</v>
       </c>
-      <c r="G10" s="53" t="s">
-        <v>48</v>
+      <c r="G10" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -1248,14 +1263,14 @@
         <f t="shared" si="0"/>
         <v>5.99</v>
       </c>
-      <c r="G11" s="53" t="s">
-        <v>48</v>
+      <c r="G11" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="I11" s="28"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="22">
         <v>2.14</v>
@@ -1264,14 +1279,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>2.14</v>
       </c>
-      <c r="G12" s="53" t="s">
-        <v>48</v>
+      <c r="G12" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="I12" s="28"/>
     </row>
@@ -1292,8 +1307,8 @@
         <f t="shared" si="0"/>
         <v>1.18</v>
       </c>
-      <c r="G13" s="53" t="s">
-        <v>49</v>
+      <c r="G13" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="I13" s="28"/>
     </row>
@@ -1307,27 +1322,27 @@
       <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="55" t="s">
-        <v>46</v>
+      <c r="E14" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="0"/>
         <v>1.1599999999999999</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>48</v>
+      <c r="G14" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="19" t="s">
         <v>4</v>
       </c>
@@ -1341,12 +1356,12 @@
       <c r="I16"/>
       <c r="K16" s="27"/>
     </row>
-    <row r="17" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="47" t="s">
+    <row r="17" spans="2:11" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="15" t="s">
         <v>6</v>
       </c>
@@ -1361,117 +1376,169 @@
       <c r="I17"/>
       <c r="K17" s="27"/>
     </row>
-    <row r="18" spans="2:11" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="49" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="35">
-        <v>13.05</v>
-      </c>
-      <c r="G18" s="31">
-        <f t="shared" ref="G18:G20" si="1">SUM($F$7:$F$14) + F18</f>
-        <v>35.300000000000004</v>
+      <c r="D18" s="51"/>
+      <c r="E18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="34">
+        <v>39.99</v>
+      </c>
+      <c r="G18" s="30">
+        <f>SUM($F$7:$F$14) + F18</f>
+        <v>62.240000000000009</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18"/>
       <c r="K18" s="27"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
+    <row r="19" spans="2:11" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="35">
-        <v>7.49</v>
-      </c>
-      <c r="G19" s="31">
-        <f t="shared" si="1"/>
-        <v>29.740000000000002</v>
+        <v>53</v>
+      </c>
+      <c r="F19" s="34">
+        <v>33</v>
+      </c>
+      <c r="G19" s="30">
+        <f>SUM($F$7:$F$14) + F19</f>
+        <v>55.25</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19"/>
       <c r="K19" s="27"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+    <row r="20" spans="2:11" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="35">
-        <v>6.68</v>
+        <v>13.05</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="1"/>
-        <v>28.930000000000003</v>
+        <f t="shared" ref="G20:G22" si="1">SUM($F$7:$F$14) + F20</f>
+        <v>35.300000000000004</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20"/>
       <c r="K20" s="27"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="35">
+        <v>7.49</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="1"/>
+        <v>29.740000000000002</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="35">
+        <v>6.68</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="1"/>
+        <v>28.930000000000003</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="36">
+      <c r="F23" s="36">
         <v>5.88</v>
       </c>
-      <c r="G21" s="32">
-        <f>SUM($F$7:$F$14) + F21</f>
+      <c r="G23" s="32">
+        <f>SUM($F$7:$F$14) + F23</f>
         <v>28.130000000000003</v>
       </c>
-      <c r="I21"/>
-      <c r="J21" s="27"/>
+      <c r="I23"/>
+      <c r="J23" s="27"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="F24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:H14">
     <sortCondition ref="G7:G14"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B2:I4"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E7" r:id="rId1" xr:uid="{062248E1-8540-1846-8AA4-A45A566CE89D}"/>
     <hyperlink ref="E17" r:id="rId2" display="https://www.aliexpress.com/item/32897276508.html?spm=a2g0o.productlist.0.0.30aca15enJKycr&amp;algo_pvid=355ea04a-dc70-4b46-b04e-6ec93d3414f2&amp;algo_expid=355ea04a-dc70-4b46-b04e-6ec93d3414f2-2&amp;btsid=7901246e-f13e-495e-94e5-165e4d74f2a7&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{147B2F1B-B24D-C54F-914E-4B64652BD485}"/>
-    <hyperlink ref="E18" r:id="rId3" display="https://www.aliexpress.com/item/33059903858.html?spm=a2g0o.productlist.0.0.30aca15enJKycr&amp;algo_pvid=355ea04a-dc70-4b46-b04e-6ec93d3414f2&amp;algo_expid=355ea04a-dc70-4b46-b04e-6ec93d3414f2-0&amp;btsid=7901246e-f13e-495e-94e5-165e4d74f2a7&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{F9BDEB06-D10C-F04B-812C-3899811D29CA}"/>
-    <hyperlink ref="E20" r:id="rId4" xr:uid="{B9746B67-8085-1E48-A0F7-E35A3C8B06A6}"/>
+    <hyperlink ref="E20" r:id="rId3" display="https://www.aliexpress.com/item/33059903858.html?spm=a2g0o.productlist.0.0.30aca15enJKycr&amp;algo_pvid=355ea04a-dc70-4b46-b04e-6ec93d3414f2&amp;algo_expid=355ea04a-dc70-4b46-b04e-6ec93d3414f2-0&amp;btsid=7901246e-f13e-495e-94e5-165e4d74f2a7&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{F9BDEB06-D10C-F04B-812C-3899811D29CA}"/>
+    <hyperlink ref="E22" r:id="rId4" xr:uid="{B9746B67-8085-1E48-A0F7-E35A3C8B06A6}"/>
     <hyperlink ref="E9" r:id="rId5" display="https://www.aliexpress.com/item/32673911558.html?spm=a2g0o.productlist.0.0.487f12898Ymoe9&amp;algo_pvid=5ae1163e-a6a1-44d9-816d-c66231e9b801&amp;algo_expid=5ae1163e-a6a1-44d9-816d-c66231e9b801-1&amp;btsid=520234e0-3f85-4de2-a481-cd2084f05d03&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{FCC8354D-0EBD-6742-AA76-676A5E4549B4}"/>
     <hyperlink ref="E8" r:id="rId6" display="https://www.aliexpress.com/item/32635719320.html?spm=a2g0o.productlist.0.0.7bf11fbcnvdP6g&amp;algo_pvid=69646217-db5a-4091-bdae-bc1e3aa8d8d0&amp;algo_expid=69646217-db5a-4091-bdae-bc1e3aa8d8d0-7&amp;btsid=b7db3f1c-ab74-44a0-8fe3-26295b771ab3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{31DAFCEF-BCCB-B248-9A9B-6D6E69F5CDC7}"/>
     <hyperlink ref="E11" r:id="rId7" display="https://www.amazon.co.uk/TeckNet-Aluminum-External-Adapter-Windows/dp/B000R5NJD8/ref=pd_sbs_147_5/257-8623939-5009230?_encoding=UTF8&amp;pd_rd_i=B010N8UP6C&amp;pd_rd_r=b7878bde-c4b0-4f9d-b8c6-053a534a494d&amp;pd_rd_w=DXyTF&amp;pd_rd_wg=UZof3&amp;pf_rd_p=f4a31d1d-8f61-48f5-b6f4-a22ba06df575&amp;pf_rd_r=A8GDWXWZS067NFBHQ6M4&amp;refRID=A8GDWXWZS067NFBHQ6M4&amp;th=1" xr:uid="{856189ED-8707-4D4A-AE5C-51A81B3FFED9}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{5D537035-3DA7-A541-899D-0E5A003BFFC0}"/>
     <hyperlink ref="E13" r:id="rId9" xr:uid="{38AE1551-BDD8-7F41-B52E-8B8D8BC320E0}"/>
-    <hyperlink ref="E21" r:id="rId10" display="https://www.aliexpress.com/item/4000443924301.html?spm=a2g0o.productlist.0.0.68061ccd6FR9Mx&amp;algo_pvid=650da673-9883-4ac0-8ae2-0df5365f4f59&amp;algo_expid=650da673-9883-4ac0-8ae2-0df5365f4f59-7&amp;btsid=99f42b7e-0b1d-4536-a145-799b9284a0f3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{1C1C937A-3D34-044F-990E-8B2A5A7F1053}"/>
+    <hyperlink ref="E23" r:id="rId10" display="https://www.aliexpress.com/item/4000443924301.html?spm=a2g0o.productlist.0.0.68061ccd6FR9Mx&amp;algo_pvid=650da673-9883-4ac0-8ae2-0df5365f4f59&amp;algo_expid=650da673-9883-4ac0-8ae2-0df5365f4f59-7&amp;btsid=99f42b7e-0b1d-4536-a145-799b9284a0f3&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{1C1C937A-3D34-044F-990E-8B2A5A7F1053}"/>
     <hyperlink ref="I6" r:id="rId11" xr:uid="{AE8FAD3E-C5DD-6D43-B0AE-512D8E8DF902}"/>
     <hyperlink ref="I7" r:id="rId12" xr:uid="{2170733D-576F-BB43-BC62-788AA488E6FB}"/>
     <hyperlink ref="I8" r:id="rId13" xr:uid="{BFBDE08D-130A-3141-89A3-08BE58F1548C}"/>
     <hyperlink ref="I9" r:id="rId14" location="contact-us" display="https://www.brides.com/about-us-4777099 - contact-us" xr:uid="{D4D2B638-7A8D-C74F-8D32-E008A9A583BE}"/>
     <hyperlink ref="I10" r:id="rId15" xr:uid="{AB54493A-86F8-3A48-99F4-E66051DE6125}"/>
-    <hyperlink ref="E19" r:id="rId16" xr:uid="{83D38802-124E-2048-A92E-E72E15CEF0A6}"/>
+    <hyperlink ref="E21" r:id="rId16" xr:uid="{83D38802-124E-2048-A92E-E72E15CEF0A6}"/>
     <hyperlink ref="E12" r:id="rId17" display="https://www.aliexpress.com/item/32861242337.html?spm=a2g0o.productlist.0.0.39d85d03pZECR7&amp;algo_pvid=c9870819-eada-40a5-9395-c73b9fa229b0&amp;algo_expid=c9870819-eada-40a5-9395-c73b9fa229b0-0&amp;btsid=c2af3573-12a6-4257-8be3-02fbc935ad88&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{7C654ED2-C92D-B744-AD86-1F2A237D5064}"/>
     <hyperlink ref="E14" r:id="rId18" display="https://www.aliexpress.com/item/32947680488.html?spm=a2g0o.productlist.0.0.276310c4vqGtty&amp;algo_pvid=aa2c9d9a-b18b-42d7-9cc0-6de719c96c89&amp;algo_expid=aa2c9d9a-b18b-42d7-9cc0-6de719c96c89-0&amp;btsid=013fedc3-28eb-42cc-a7b9-1e0ab059d256&amp;ws_ab_test=searchweb0_0,searchweb201602_7,searchweb201603_55" xr:uid="{A99EF000-EC26-0147-85E2-E098677ED58C}"/>
+    <hyperlink ref="E18" r:id="rId19" xr:uid="{F662147E-DFEB-B843-B131-26145E2A20E8}"/>
+    <hyperlink ref="E19" r:id="rId20" xr:uid="{E90E9D81-2DC7-2F41-9C78-E997DA345762}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
